--- a/Messung.xlsx
+++ b/Messung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>UDP</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>5000 Packages</t>
+  </si>
+  <si>
+    <t>verloren</t>
+  </si>
+  <si>
+    <t>2-laptop</t>
+  </si>
+  <si>
+    <t>UDP - localhost</t>
+  </si>
+  <si>
+    <t>UDP - 2 laptop</t>
   </si>
 </sst>
 </file>
@@ -149,15 +161,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -173,6 +187,3773 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Senderate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$4:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>178913.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10021.475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1094.8833999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63276.836000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9540.0339999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103703.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17643.351999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150943.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36914.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1451-4568-98A5-A63DFA1EA7E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empfangsrate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$4:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12229.744000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5449.0604999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1052.3743999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12158.055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6047.5159999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11522.634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8558.7649999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13323.816000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11836.821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1451-4568-98A5-A63DFA1EA7E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441548656"/>
+        <c:axId val="441548984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441548656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441548984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441548984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441548656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$4:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>53846.152000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10013.411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1101.4407000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45161.192999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9986.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53080.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17693.521000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59259.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28828.828000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD2C-42F5-BA8C-AD2BD74AE3C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$G$4:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>499.27557000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8575.8040000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>731.64359999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9423.643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296.39825000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>610.20299999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>274.81625000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2536.232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>324.57654000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD2C-42F5-BA8C-AD2BD74AE3C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="444291984"/>
+        <c:axId val="444292968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="444291984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444292968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444292968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444291984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$I$4:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>140330.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9661.8359999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1085.2292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64889.919999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9355.1620000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96385.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16533.805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120171.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBE2-48D1-8306-007380BB6310}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$4:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>140330.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9678.5349999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1087.3363999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65650.649999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9514.1010000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98073.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17041.995999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122807.016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38173.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBE2-48D1-8306-007380BB6310}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="445946304"/>
+        <c:axId val="445942040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445946304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445942040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445942040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445946304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$K$4:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>57142.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9850.4840000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1102.8506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74172.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10049.349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49122.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17777.777099999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57731.957000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30939.226999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60AF-4903-BFBA-834222A9F768}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$4:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45070.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9859.6239999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1108.4719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49230.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10346.421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45901.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18651.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46666.667999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31728.046999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60AF-4903-BFBA-834222A9F768}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="444294608"/>
+        <c:axId val="444295920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="444294608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444295920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444295920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444294608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927DCAC2-E19C-46CC-A926-7C0227D6602C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66462444-9738-4137-B772-C6A88E353575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE18639D-E825-4F45-BFA7-96D4092084AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1AAE684-33C9-4DE3-A06F-6904A02B0B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,83 +4253,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -564,14 +4350,29 @@
       <c r="E4">
         <v>12229.744000000001</v>
       </c>
-      <c r="H4">
-        <v>140330.88</v>
+      <c r="F4">
+        <v>53846.152000000002</v>
+      </c>
+      <c r="G4">
+        <v>499.27557000000002</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I4">
         <v>140330.88</v>
       </c>
+      <c r="J4">
+        <v>140330.88</v>
+      </c>
+      <c r="K4">
+        <v>57142.86</v>
+      </c>
+      <c r="L4">
+        <v>45070.42</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -587,14 +4388,29 @@
       <c r="E5">
         <v>5449.0604999999996</v>
       </c>
-      <c r="H5">
+      <c r="F5">
+        <v>10013.411</v>
+      </c>
+      <c r="G5">
+        <v>8575.8040000000001</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>9661.8359999999993</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9678.5349999999999</v>
       </c>
+      <c r="K5">
+        <v>9850.4840000000004</v>
+      </c>
+      <c r="L5">
+        <v>9859.6239999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -610,14 +4426,29 @@
       <c r="E6">
         <v>1052.3743999999999</v>
       </c>
-      <c r="H6">
+      <c r="F6">
+        <v>1101.4407000000001</v>
+      </c>
+      <c r="G6">
+        <v>731.64359999999999</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I6">
         <v>1085.2292</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1087.3363999999999</v>
       </c>
+      <c r="K6">
+        <v>1102.8506</v>
+      </c>
+      <c r="L6">
+        <v>1108.4719</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -633,14 +4464,29 @@
       <c r="E7">
         <v>12158.055</v>
       </c>
-      <c r="H7">
+      <c r="F7">
+        <v>45161.192999999999</v>
+      </c>
+      <c r="G7">
+        <v>9423.643</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>64889.919999999998</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>65650.649999999994</v>
       </c>
+      <c r="K7">
+        <v>74172.19</v>
+      </c>
+      <c r="L7">
+        <v>49230.77</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -656,14 +4502,29 @@
       <c r="E8">
         <v>6047.5159999999996</v>
       </c>
-      <c r="H8">
+      <c r="F8">
+        <v>9986.625</v>
+      </c>
+      <c r="G8">
+        <v>296.39825000000002</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="I8">
         <v>9355.1620000000003</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9514.1010000000006</v>
       </c>
+      <c r="K8">
+        <v>10049.349</v>
+      </c>
+      <c r="L8">
+        <v>10346.421</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -679,14 +4540,29 @@
       <c r="E9">
         <v>11522.634</v>
       </c>
-      <c r="H9">
+      <c r="F9">
+        <v>53080.57</v>
+      </c>
+      <c r="G9">
+        <v>610.20299999999997</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="I9">
         <v>96385.55</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>98073.56</v>
       </c>
+      <c r="K9">
+        <v>49122.81</v>
+      </c>
+      <c r="L9">
+        <v>45901.64</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -702,14 +4578,29 @@
       <c r="E10">
         <v>8558.7649999999994</v>
       </c>
-      <c r="H10">
+      <c r="F10">
+        <v>17693.521000000001</v>
+      </c>
+      <c r="G10">
+        <v>274.81625000000003</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="I10">
         <v>16533.805</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>17041.995999999999</v>
       </c>
+      <c r="K10">
+        <v>17777.777099999999</v>
+      </c>
+      <c r="L10">
+        <v>18651.25</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -725,14 +4616,29 @@
       <c r="E11">
         <v>13323.816000000001</v>
       </c>
-      <c r="H11">
+      <c r="F11">
+        <v>59259.26</v>
+      </c>
+      <c r="G11">
+        <v>2536.232</v>
+      </c>
+      <c r="H11" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I11">
         <v>120171.68</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>122807.016</v>
       </c>
+      <c r="K11">
+        <v>57731.957000000002</v>
+      </c>
+      <c r="L11">
+        <v>46666.667999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -748,24 +4654,64 @@
       <c r="E12">
         <v>11836.821</v>
       </c>
-      <c r="H12">
+      <c r="F12">
+        <v>28828.828000000001</v>
+      </c>
+      <c r="G12">
+        <v>324.57654000000002</v>
+      </c>
+      <c r="H12" s="9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I12">
         <v>35737</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>38173.14</v>
+      </c>
+      <c r="K12">
+        <v>30939.226999999999</v>
+      </c>
+      <c r="L12">
+        <v>31728.046999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>